--- a/Documentation/TestCases/TestCases.xlsx
+++ b/Documentation/TestCases/TestCases.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="20400" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="20400" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="GUI (Tomek)" sheetId="4" r:id="rId1"/>
     <sheet name="GUI + MERGE" sheetId="9" r:id="rId2"/>
     <sheet name="ARENA" sheetId="1" r:id="rId3"/>
+    <sheet name="FLOW" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="204">
   <si>
     <t>TEST CASE NAME</t>
   </si>
@@ -614,6 +615,42 @@
   </si>
   <si>
     <t>NOT TESTED</t>
+  </si>
+  <si>
+    <t>new arena is loaded and player heads appear on the screen according to the new initial position</t>
+  </si>
+  <si>
+    <t>The game is frozen, there is a countdown: 3, 2, 1, GO!</t>
+  </si>
+  <si>
+    <t>white letters in the middle of the arena</t>
+  </si>
+  <si>
+    <t>after the countdown game starts</t>
+  </si>
+  <si>
+    <t>when the game is finished, a final screen with a score board appears</t>
+  </si>
+  <si>
+    <t>the final screen is a shaded layer put on top of the last scene</t>
+  </si>
+  <si>
+    <t>the colors from the GUI palette are used</t>
+  </si>
+  <si>
+    <t>the display text is consistent with findings</t>
+  </si>
+  <si>
+    <t>the score borad is sorted in descending order</t>
+  </si>
+  <si>
+    <t>"Play Again" button alows to go back to the GUI</t>
+  </si>
+  <si>
+    <t>next game starts with the previous game settings</t>
+  </si>
+  <si>
+    <t>general game flow is preserved (GUI - Countdown - Arena - ... - Countdown - Arena - Score board - GUI - Countdown - Arena - etc.)</t>
   </si>
 </sst>
 </file>
@@ -886,7 +923,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1283,6 +1320,18 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1292,24 +1341,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1328,122 +1437,62 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1758,7 +1807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C194"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -1781,7 +1830,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="148" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1792,7 +1841,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A3" s="145"/>
+      <c r="A3" s="149"/>
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
@@ -1801,8 +1850,8 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A4" s="145"/>
-      <c r="B4" s="197" t="s">
+      <c r="A4" s="149"/>
+      <c r="B4" s="147" t="s">
         <v>188</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1810,7 +1859,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="146" t="s">
+      <c r="A5" s="150" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1821,7 +1870,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="146"/>
+      <c r="A6" s="150"/>
       <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
@@ -1830,7 +1879,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="146"/>
+      <c r="A7" s="150"/>
       <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
@@ -1839,7 +1888,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="146"/>
+      <c r="A8" s="150"/>
       <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
@@ -1848,7 +1897,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="146"/>
+      <c r="A9" s="150"/>
       <c r="B9" s="6" t="s">
         <v>11</v>
       </c>
@@ -1857,7 +1906,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="146"/>
+      <c r="A10" s="150"/>
       <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
@@ -1877,7 +1926,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="146" t="s">
+      <c r="A12" s="150" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -1888,7 +1937,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="146"/>
+      <c r="A13" s="150"/>
       <c r="B13" s="6" t="s">
         <v>19</v>
       </c>
@@ -1897,7 +1946,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="146"/>
+      <c r="A14" s="150"/>
       <c r="B14" s="6" t="s">
         <v>20</v>
       </c>
@@ -1906,7 +1955,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="146"/>
+      <c r="A15" s="150"/>
       <c r="B15" s="6" t="s">
         <v>189</v>
       </c>
@@ -1915,7 +1964,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="146"/>
+      <c r="A16" s="150"/>
       <c r="B16" s="6" t="s">
         <v>21</v>
       </c>
@@ -1924,7 +1973,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="146"/>
+      <c r="A17" s="150"/>
       <c r="B17" s="6" t="s">
         <v>190</v>
       </c>
@@ -2885,7 +2934,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="150" t="s">
         <v>133</v>
       </c>
       <c r="B2" s="82" t="s">
@@ -2909,8 +2958,8 @@
       <c r="H2" s="81"/>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A3" s="146"/>
-      <c r="B3" s="147" t="s">
+      <c r="A3" s="150"/>
+      <c r="B3" s="157" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -2931,15 +2980,15 @@
       <c r="H3" s="55"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A4" s="146"/>
-      <c r="B4" s="162"/>
-      <c r="C4" s="172" t="s">
+      <c r="A4" s="150"/>
+      <c r="B4" s="158"/>
+      <c r="C4" s="160" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="176" t="s">
+      <c r="E4" s="166" t="s">
         <v>37</v>
       </c>
       <c r="F4" s="13" t="s">
@@ -2951,13 +3000,13 @@
       <c r="H4" s="52"/>
     </row>
     <row r="5" spans="1:8" ht="28.5" customHeight="1">
-      <c r="A5" s="146"/>
-      <c r="B5" s="162"/>
-      <c r="C5" s="173"/>
+      <c r="A5" s="150"/>
+      <c r="B5" s="158"/>
+      <c r="C5" s="161"/>
       <c r="D5" s="44" t="s">
         <v>166</v>
       </c>
-      <c r="E5" s="176"/>
+      <c r="E5" s="166"/>
       <c r="F5" s="17" t="s">
         <v>66</v>
       </c>
@@ -2969,11 +3018,11 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A6" s="146"/>
-      <c r="B6" s="162"/>
-      <c r="C6" s="175"/>
+      <c r="A6" s="150"/>
+      <c r="B6" s="158"/>
+      <c r="C6" s="165"/>
       <c r="D6" s="15"/>
-      <c r="E6" s="177"/>
+      <c r="E6" s="167"/>
       <c r="F6" s="14" t="s">
         <v>73</v>
       </c>
@@ -2983,15 +3032,15 @@
       <c r="H6" s="52"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A7" s="146"/>
-      <c r="B7" s="162"/>
-      <c r="C7" s="172" t="s">
+      <c r="A7" s="150"/>
+      <c r="B7" s="158"/>
+      <c r="C7" s="160" t="s">
         <v>34</v>
       </c>
       <c r="D7" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="178" t="s">
+      <c r="E7" s="168" t="s">
         <v>38</v>
       </c>
       <c r="F7" s="16" t="s">
@@ -3003,47 +3052,47 @@
       <c r="H7" s="51"/>
     </row>
     <row r="8" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A8" s="146"/>
-      <c r="B8" s="162"/>
-      <c r="C8" s="173"/>
+      <c r="A8" s="150"/>
+      <c r="B8" s="158"/>
+      <c r="C8" s="161"/>
       <c r="D8" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E8" s="176"/>
+      <c r="E8" s="166"/>
       <c r="F8" s="43" t="s">
         <v>67</v>
       </c>
       <c r="G8" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="H8" s="167" t="s">
+      <c r="H8" s="151" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A9" s="146"/>
-      <c r="B9" s="162"/>
-      <c r="C9" s="175"/>
+      <c r="A9" s="150"/>
+      <c r="B9" s="158"/>
+      <c r="C9" s="165"/>
       <c r="D9" s="18"/>
-      <c r="E9" s="177"/>
+      <c r="E9" s="167"/>
       <c r="F9" s="45" t="s">
         <v>68</v>
       </c>
       <c r="G9" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="H9" s="166"/>
+      <c r="H9" s="152"/>
     </row>
     <row r="10" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A10" s="146"/>
-      <c r="B10" s="162"/>
-      <c r="C10" s="168" t="s">
+      <c r="A10" s="150"/>
+      <c r="B10" s="158"/>
+      <c r="C10" s="153" t="s">
         <v>69</v>
       </c>
       <c r="D10" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="170" t="s">
+      <c r="E10" s="155" t="s">
         <v>37</v>
       </c>
       <c r="F10" s="46" t="s">
@@ -3055,13 +3104,13 @@
       <c r="H10" s="52"/>
     </row>
     <row r="11" spans="1:8" ht="28.5" customHeight="1">
-      <c r="A11" s="146"/>
-      <c r="B11" s="162"/>
-      <c r="C11" s="169"/>
+      <c r="A11" s="150"/>
+      <c r="B11" s="158"/>
+      <c r="C11" s="154"/>
       <c r="D11" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="E11" s="171"/>
+      <c r="E11" s="156"/>
       <c r="F11" s="72" t="s">
         <v>75</v>
       </c>
@@ -3073,13 +3122,13 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="28.5" customHeight="1">
-      <c r="A12" s="146"/>
-      <c r="B12" s="148"/>
-      <c r="C12" s="169"/>
+      <c r="A12" s="150"/>
+      <c r="B12" s="159"/>
+      <c r="C12" s="154"/>
       <c r="D12" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="171"/>
+      <c r="E12" s="156"/>
       <c r="F12" s="72" t="s">
         <v>76</v>
       </c>
@@ -3089,8 +3138,8 @@
       <c r="H12" s="52"/>
     </row>
     <row r="13" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A13" s="146"/>
-      <c r="B13" s="147" t="s">
+      <c r="A13" s="150"/>
+      <c r="B13" s="157" t="s">
         <v>51</v>
       </c>
       <c r="C13" s="19" t="s">
@@ -3111,15 +3160,15 @@
       <c r="H13" s="22"/>
     </row>
     <row r="14" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A14" s="146"/>
-      <c r="B14" s="162"/>
-      <c r="C14" s="172" t="s">
+      <c r="A14" s="150"/>
+      <c r="B14" s="158"/>
+      <c r="C14" s="160" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="172" t="s">
+      <c r="D14" s="160" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="163" t="s">
+      <c r="E14" s="162" t="s">
         <v>79</v>
       </c>
       <c r="F14" s="16" t="s">
@@ -3128,27 +3177,27 @@
       <c r="G14" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="H14" s="165" t="s">
+      <c r="H14" s="164" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A15" s="146"/>
-      <c r="B15" s="162"/>
-      <c r="C15" s="173"/>
-      <c r="D15" s="173"/>
-      <c r="E15" s="174"/>
+      <c r="A15" s="150"/>
+      <c r="B15" s="158"/>
+      <c r="C15" s="161"/>
+      <c r="D15" s="161"/>
+      <c r="E15" s="163"/>
       <c r="F15" s="31" t="s">
         <v>82</v>
       </c>
       <c r="G15" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="H15" s="166"/>
+      <c r="H15" s="152"/>
     </row>
     <row r="16" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A16" s="146"/>
-      <c r="B16" s="162"/>
+      <c r="A16" s="150"/>
+      <c r="B16" s="158"/>
       <c r="C16" s="22" t="s">
         <v>47</v>
       </c>
@@ -3167,8 +3216,8 @@
       <c r="H16" s="55"/>
     </row>
     <row r="17" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A17" s="146"/>
-      <c r="B17" s="162"/>
+      <c r="A17" s="150"/>
+      <c r="B17" s="158"/>
       <c r="C17" s="63" t="s">
         <v>46</v>
       </c>
@@ -3189,8 +3238,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A18" s="146"/>
-      <c r="B18" s="148"/>
+      <c r="A18" s="150"/>
+      <c r="B18" s="159"/>
       <c r="C18" s="22" t="s">
         <v>48</v>
       </c>
@@ -3211,7 +3260,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A19" s="146"/>
+      <c r="A19" s="150"/>
       <c r="B19" s="27" t="s">
         <v>50</v>
       </c>
@@ -3233,8 +3282,8 @@
       <c r="H19" s="55"/>
     </row>
     <row r="20" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A20" s="146"/>
-      <c r="B20" s="147" t="s">
+      <c r="A20" s="150"/>
+      <c r="B20" s="157" t="s">
         <v>92</v>
       </c>
       <c r="C20" s="29" t="s">
@@ -3255,15 +3304,15 @@
       <c r="H20" s="55"/>
     </row>
     <row r="21" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A21" s="146"/>
-      <c r="B21" s="162"/>
-      <c r="C21" s="150" t="s">
+      <c r="A21" s="150"/>
+      <c r="B21" s="158"/>
+      <c r="C21" s="173" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="172" t="s">
+      <c r="D21" s="160" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="163" t="s">
+      <c r="E21" s="162" t="s">
         <v>108</v>
       </c>
       <c r="F21" s="29" t="s">
@@ -3272,27 +3321,27 @@
       <c r="G21" s="96" t="s">
         <v>114</v>
       </c>
-      <c r="H21" s="165" t="s">
+      <c r="H21" s="164" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A22" s="146"/>
-      <c r="B22" s="162"/>
-      <c r="C22" s="152"/>
-      <c r="D22" s="175"/>
-      <c r="E22" s="164"/>
+      <c r="A22" s="150"/>
+      <c r="B22" s="158"/>
+      <c r="C22" s="174"/>
+      <c r="D22" s="165"/>
+      <c r="E22" s="172"/>
       <c r="F22" s="31" t="s">
         <v>109</v>
       </c>
       <c r="G22" s="97" t="s">
         <v>114</v>
       </c>
-      <c r="H22" s="166"/>
+      <c r="H22" s="152"/>
     </row>
     <row r="23" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A23" s="146"/>
-      <c r="B23" s="162"/>
+      <c r="A23" s="150"/>
+      <c r="B23" s="158"/>
       <c r="C23" s="29" t="s">
         <v>85</v>
       </c>
@@ -3313,8 +3362,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A24" s="146"/>
-      <c r="B24" s="162"/>
+      <c r="A24" s="150"/>
+      <c r="B24" s="158"/>
       <c r="C24" s="32" t="s">
         <v>54</v>
       </c>
@@ -3335,8 +3384,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A25" s="146"/>
-      <c r="B25" s="148"/>
+      <c r="A25" s="150"/>
+      <c r="B25" s="159"/>
       <c r="C25" s="32" t="s">
         <v>103</v>
       </c>
@@ -3355,8 +3404,8 @@
       <c r="H25" s="55"/>
     </row>
     <row r="26" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A26" s="146"/>
-      <c r="B26" s="147" t="s">
+      <c r="A26" s="150"/>
+      <c r="B26" s="157" t="s">
         <v>22</v>
       </c>
       <c r="C26" s="22" t="s">
@@ -3377,8 +3426,8 @@
       <c r="H26" s="56"/>
     </row>
     <row r="27" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A27" s="146"/>
-      <c r="B27" s="148"/>
+      <c r="A27" s="150"/>
+      <c r="B27" s="159"/>
       <c r="C27" s="65" t="s">
         <v>61</v>
       </c>
@@ -3399,8 +3448,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A28" s="146"/>
-      <c r="B28" s="147" t="s">
+      <c r="A28" s="150"/>
+      <c r="B28" s="157" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="32" t="s">
@@ -3423,8 +3472,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A29" s="146"/>
-      <c r="B29" s="148"/>
+      <c r="A29" s="150"/>
+      <c r="B29" s="159"/>
       <c r="C29" s="65" t="s">
         <v>63</v>
       </c>
@@ -3445,8 +3494,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A30" s="146"/>
-      <c r="B30" s="147" t="s">
+      <c r="A30" s="150"/>
+      <c r="B30" s="157" t="s">
         <v>25</v>
       </c>
       <c r="C30" s="32" t="s">
@@ -3467,8 +3516,8 @@
       <c r="H30" s="55"/>
     </row>
     <row r="31" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A31" s="146"/>
-      <c r="B31" s="148"/>
+      <c r="A31" s="150"/>
+      <c r="B31" s="159"/>
       <c r="C31" s="65" t="s">
         <v>65</v>
       </c>
@@ -3487,19 +3536,19 @@
       <c r="H31" s="51"/>
     </row>
     <row r="32" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A32" s="159" t="s">
+      <c r="A32" s="169" t="s">
         <v>132</v>
       </c>
-      <c r="B32" s="147" t="s">
+      <c r="B32" s="157" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="147" t="s">
+      <c r="C32" s="157" t="s">
         <v>100</v>
       </c>
       <c r="D32" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="E32" s="150" t="s">
+      <c r="E32" s="173" t="s">
         <v>58</v>
       </c>
       <c r="F32" s="86" t="s">
@@ -3511,11 +3560,11 @@
       <c r="H32" s="51"/>
     </row>
     <row r="33" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A33" s="160"/>
-      <c r="B33" s="162"/>
-      <c r="C33" s="162"/>
+      <c r="A33" s="170"/>
+      <c r="B33" s="158"/>
+      <c r="C33" s="158"/>
       <c r="D33" s="31"/>
-      <c r="E33" s="151"/>
+      <c r="E33" s="176"/>
       <c r="F33" s="13" t="s">
         <v>135</v>
       </c>
@@ -3525,11 +3574,11 @@
       <c r="H33" s="52"/>
     </row>
     <row r="34" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A34" s="160"/>
-      <c r="B34" s="148"/>
-      <c r="C34" s="148"/>
+      <c r="A34" s="170"/>
+      <c r="B34" s="159"/>
+      <c r="C34" s="159"/>
       <c r="D34" s="21"/>
-      <c r="E34" s="152"/>
+      <c r="E34" s="174"/>
       <c r="F34" s="18" t="s">
         <v>168</v>
       </c>
@@ -3539,17 +3588,17 @@
       <c r="H34" s="54"/>
     </row>
     <row r="35" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A35" s="160"/>
-      <c r="B35" s="153" t="s">
+      <c r="A35" s="170"/>
+      <c r="B35" s="177" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="153" t="s">
+      <c r="C35" s="177" t="s">
         <v>110</v>
       </c>
       <c r="D35" s="100" t="s">
         <v>111</v>
       </c>
-      <c r="E35" s="156" t="s">
+      <c r="E35" s="180" t="s">
         <v>41</v>
       </c>
       <c r="F35" s="99" t="s">
@@ -3561,11 +3610,11 @@
       <c r="H35" s="63"/>
     </row>
     <row r="36" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A36" s="160"/>
-      <c r="B36" s="154"/>
-      <c r="C36" s="154"/>
+      <c r="A36" s="170"/>
+      <c r="B36" s="178"/>
+      <c r="C36" s="178"/>
       <c r="D36" s="101"/>
-      <c r="E36" s="157"/>
+      <c r="E36" s="181"/>
       <c r="F36" s="92" t="s">
         <v>135</v>
       </c>
@@ -3577,11 +3626,11 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A37" s="160"/>
-      <c r="B37" s="155"/>
-      <c r="C37" s="155"/>
+      <c r="A37" s="170"/>
+      <c r="B37" s="179"/>
+      <c r="C37" s="179"/>
       <c r="D37" s="102"/>
-      <c r="E37" s="158"/>
+      <c r="E37" s="182"/>
       <c r="F37" s="103" t="s">
         <v>168</v>
       </c>
@@ -3591,7 +3640,7 @@
       <c r="H37" s="64"/>
     </row>
     <row r="38" spans="1:8" s="107" customFormat="1">
-      <c r="A38" s="161"/>
+      <c r="A38" s="171"/>
       <c r="B38" s="47" t="s">
         <v>29</v>
       </c>
@@ -3721,7 +3770,7 @@
       <c r="E50" s="91"/>
       <c r="F50" s="33"/>
       <c r="G50" s="122"/>
-      <c r="H50" s="149"/>
+      <c r="H50" s="175"/>
     </row>
     <row r="51" spans="1:8" s="107" customFormat="1" ht="14.25" customHeight="1">
       <c r="A51" s="105"/>
@@ -3731,7 +3780,7 @@
       <c r="E51" s="106"/>
       <c r="F51" s="33"/>
       <c r="G51" s="123"/>
-      <c r="H51" s="149"/>
+      <c r="H51" s="175"/>
     </row>
     <row r="52" spans="1:8" s="107" customFormat="1" ht="14.25" customHeight="1">
       <c r="A52" s="105"/>
@@ -4890,6 +4939,23 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A2:A31"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B30:B31"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="E10:E12"/>
@@ -4903,23 +4969,6 @@
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="E7:E9"/>
-    <mergeCell ref="A32:A38"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A2:A31"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="B30:B31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4931,7 +4980,7 @@
   <dimension ref="A1:I208"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="I20" sqref="F1:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4972,7 +5021,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="169" t="s">
         <v>171</v>
       </c>
       <c r="B2" s="82" t="s">
@@ -4996,7 +5045,7 @@
       <c r="H2" s="127"/>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A3" s="160"/>
+      <c r="A3" s="170"/>
       <c r="B3" s="82" t="s">
         <v>160</v>
       </c>
@@ -5018,17 +5067,17 @@
       <c r="H3" s="127"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A4" s="160"/>
-      <c r="B4" s="188" t="s">
+      <c r="A4" s="170"/>
+      <c r="B4" s="183" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="194" t="s">
+      <c r="C4" s="189" t="s">
         <v>136</v>
       </c>
       <c r="D4" s="128" t="s">
         <v>131</v>
       </c>
-      <c r="E4" s="191" t="s">
+      <c r="E4" s="186" t="s">
         <v>41</v>
       </c>
       <c r="F4" s="128" t="s">
@@ -5040,11 +5089,11 @@
       <c r="H4" s="127"/>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A5" s="160"/>
-      <c r="B5" s="189"/>
-      <c r="C5" s="195"/>
+      <c r="A5" s="170"/>
+      <c r="B5" s="184"/>
+      <c r="C5" s="190"/>
       <c r="D5" s="126"/>
-      <c r="E5" s="192"/>
+      <c r="E5" s="187"/>
       <c r="F5" s="129" t="s">
         <v>175</v>
       </c>
@@ -5054,11 +5103,11 @@
       <c r="H5" s="131"/>
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A6" s="160"/>
-      <c r="B6" s="190"/>
-      <c r="C6" s="196"/>
+      <c r="A6" s="170"/>
+      <c r="B6" s="185"/>
+      <c r="C6" s="191"/>
       <c r="D6" s="132"/>
-      <c r="E6" s="193"/>
+      <c r="E6" s="188"/>
       <c r="F6" s="130" t="s">
         <v>137</v>
       </c>
@@ -5070,17 +5119,17 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A7" s="160"/>
-      <c r="B7" s="179" t="s">
+      <c r="A7" s="170"/>
+      <c r="B7" s="198" t="s">
         <v>138</v>
       </c>
-      <c r="C7" s="173" t="s">
+      <c r="C7" s="161" t="s">
         <v>138</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="E7" s="180" t="s">
+      <c r="E7" s="193" t="s">
         <v>41</v>
       </c>
       <c r="F7" s="14" t="s">
@@ -5092,13 +5141,13 @@
       <c r="H7" s="31"/>
     </row>
     <row r="8" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A8" s="160"/>
-      <c r="B8" s="179"/>
-      <c r="C8" s="173"/>
+      <c r="A8" s="170"/>
+      <c r="B8" s="198"/>
+      <c r="C8" s="161"/>
       <c r="D8" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="E8" s="181"/>
+      <c r="E8" s="199"/>
       <c r="F8" s="14" t="s">
         <v>178</v>
       </c>
@@ -5108,17 +5157,17 @@
       <c r="H8" s="31"/>
     </row>
     <row r="9" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A9" s="160"/>
-      <c r="B9" s="182" t="s">
+      <c r="A9" s="170"/>
+      <c r="B9" s="200" t="s">
         <v>141</v>
       </c>
-      <c r="C9" s="172" t="s">
+      <c r="C9" s="160" t="s">
         <v>141</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="E9" s="183" t="s">
+      <c r="E9" s="192" t="s">
         <v>41</v>
       </c>
       <c r="F9" s="16" t="s">
@@ -5130,13 +5179,13 @@
       <c r="H9" s="89"/>
     </row>
     <row r="10" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A10" s="160"/>
-      <c r="B10" s="179"/>
-      <c r="C10" s="173"/>
+      <c r="A10" s="170"/>
+      <c r="B10" s="198"/>
+      <c r="C10" s="161"/>
       <c r="D10" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="E10" s="180"/>
+      <c r="E10" s="193"/>
       <c r="F10" s="31" t="s">
         <v>140</v>
       </c>
@@ -5146,11 +5195,11 @@
       <c r="H10" s="90"/>
     </row>
     <row r="11" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A11" s="160"/>
-      <c r="B11" s="159" t="s">
+      <c r="A11" s="170"/>
+      <c r="B11" s="169" t="s">
         <v>145</v>
       </c>
-      <c r="C11" s="165" t="s">
+      <c r="C11" s="164" t="s">
         <v>163</v>
       </c>
       <c r="D11" s="13" t="s">
@@ -5168,9 +5217,9 @@
       <c r="H11" s="52"/>
     </row>
     <row r="12" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A12" s="160"/>
-      <c r="B12" s="160"/>
-      <c r="C12" s="167"/>
+      <c r="A12" s="170"/>
+      <c r="B12" s="170"/>
+      <c r="C12" s="151"/>
       <c r="D12" s="24" t="s">
         <v>143</v>
       </c>
@@ -5186,15 +5235,15 @@
       <c r="H12" s="52"/>
     </row>
     <row r="13" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A13" s="160"/>
-      <c r="B13" s="160"/>
-      <c r="C13" s="165" t="s">
+      <c r="A13" s="170"/>
+      <c r="B13" s="170"/>
+      <c r="C13" s="164" t="s">
         <v>164</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="E13" s="183" t="s">
+      <c r="E13" s="192" t="s">
         <v>153</v>
       </c>
       <c r="F13" s="51" t="s">
@@ -5206,13 +5255,13 @@
       <c r="H13" s="51"/>
     </row>
     <row r="14" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A14" s="160"/>
-      <c r="B14" s="160"/>
-      <c r="C14" s="167"/>
+      <c r="A14" s="170"/>
+      <c r="B14" s="170"/>
+      <c r="C14" s="151"/>
       <c r="D14" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="180"/>
+      <c r="E14" s="193"/>
       <c r="F14" s="31" t="s">
         <v>148</v>
       </c>
@@ -5222,11 +5271,11 @@
       <c r="H14" s="52"/>
     </row>
     <row r="15" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A15" s="160"/>
-      <c r="B15" s="161"/>
-      <c r="C15" s="166"/>
+      <c r="A15" s="170"/>
+      <c r="B15" s="171"/>
+      <c r="C15" s="152"/>
       <c r="D15" s="54"/>
-      <c r="E15" s="184"/>
+      <c r="E15" s="194"/>
       <c r="F15" s="21" t="s">
         <v>149</v>
       </c>
@@ -5238,17 +5287,17 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A16" s="160"/>
-      <c r="B16" s="147" t="s">
+      <c r="A16" s="170"/>
+      <c r="B16" s="157" t="s">
         <v>157</v>
       </c>
-      <c r="C16" s="150" t="s">
+      <c r="C16" s="173" t="s">
         <v>157</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="E16" s="185" t="s">
+      <c r="E16" s="195" t="s">
         <v>41</v>
       </c>
       <c r="F16" s="29" t="s">
@@ -5260,11 +5309,11 @@
       <c r="H16" s="89"/>
     </row>
     <row r="17" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A17" s="160"/>
-      <c r="B17" s="162"/>
-      <c r="C17" s="151"/>
+      <c r="A17" s="170"/>
+      <c r="B17" s="158"/>
+      <c r="C17" s="176"/>
       <c r="D17" s="107"/>
-      <c r="E17" s="186"/>
+      <c r="E17" s="196"/>
       <c r="F17" s="31" t="s">
         <v>156</v>
       </c>
@@ -5274,11 +5323,11 @@
       <c r="H17" s="52"/>
     </row>
     <row r="18" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A18" s="160"/>
-      <c r="B18" s="148"/>
-      <c r="C18" s="152"/>
+      <c r="A18" s="170"/>
+      <c r="B18" s="159"/>
+      <c r="C18" s="174"/>
       <c r="D18" s="24"/>
-      <c r="E18" s="187"/>
+      <c r="E18" s="197"/>
       <c r="F18" s="21" t="s">
         <v>154</v>
       </c>
@@ -5288,7 +5337,7 @@
       <c r="H18" s="54"/>
     </row>
     <row r="19" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A19" s="160"/>
+      <c r="A19" s="170"/>
       <c r="B19" s="62" t="s">
         <v>158</v>
       </c>
@@ -5310,7 +5359,7 @@
       <c r="H19" s="51"/>
     </row>
     <row r="20" spans="1:9" ht="28.5" customHeight="1">
-      <c r="A20" s="161"/>
+      <c r="A20" s="171"/>
       <c r="B20" s="139" t="s">
         <v>169</v>
       </c>
@@ -6960,6 +7009,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E9:E10"/>
     <mergeCell ref="A2:A20"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="E4:E6"/>
@@ -6976,9 +7026,148 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="61.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15">
+      <c r="A1" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="144" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="127"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="145" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="131"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="145" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="131"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="146" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="131"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="145" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="201"/>
+    </row>
+    <row r="7" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A7" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="31"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="31"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B9" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="53"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="B10" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="53"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="B11" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="52"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="54"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="54" t="s">
+        <v>203</v>
+      </c>
+      <c r="B13" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="54"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>